--- a/styles_layouts.xlsx
+++ b/styles_layouts.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32100" windowHeight="19700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>componentStyles</t>
   </si>
@@ -145,13 +145,25 @@
   </si>
   <si>
     <t>followLayout</t>
+  </si>
+  <si>
+    <t>GALLERY</t>
+  </si>
+  <si>
+    <t>ARTICLE</t>
+  </si>
+  <si>
+    <t>blackStrokeLayout4</t>
+  </si>
+  <si>
+    <t>pullquoteLayout</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,16 +179,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -184,15 +237,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,195 +602,312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C24"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="1" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="17" thickTop="1" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="16" thickTop="1">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="19" spans="3:6">
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="22" spans="3:6">
+      <c r="C22" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="F3:F19">
+    <sortCondition ref="F3"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
